--- a/biology/Botanique/Stromatinia/Stromatinia.xlsx
+++ b/biology/Botanique/Stromatinia/Stromatinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stromatinia est un genre de champignons (règne des Fungi) de la famille des Sclerotiniaceae[1]. Ces petites pézizes forment parasitent le système racinaire de certaines Liliacées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stromatinia est un genre de champignons (règne des Fungi) de la famille des Sclerotiniaceae. Ces petites pézizes forment parasitent le système racinaire de certaines Liliacées.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Stromatinia est caractérisé par des apothécies aux asques inoperculés naissant d'un stroma recouvrant les organes sur lesquels il se développe[2]. Ce stroma peut être blanc quand il est intérieur, ou noir quand il est étendu à la surface. Les apothécies présentent des caractères similaires à celles des genres Sclerotinia et Dumontinia, et souvent, seuls leur hôte permet de les distinguer. Aussi, contrairement à eux, Stromatinia ne produit pas de sclérotes, ou de tout petits naissant d'hyphes aériens qui ne sont jamais liés aux apothécies[3]. Contrairement à de nombreux autres genres des Sclerotiniaceae, le stade asexué de Stromatinia n'est pas connu[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Stromatinia est caractérisé par des apothécies aux asques inoperculés naissant d'un stroma recouvrant les organes sur lesquels il se développe. Ce stroma peut être blanc quand il est intérieur, ou noir quand il est étendu à la surface. Les apothécies présentent des caractères similaires à celles des genres Sclerotinia et Dumontinia, et souvent, seuls leur hôte permet de les distinguer. Aussi, contrairement à eux, Stromatinia ne produit pas de sclérotes, ou de tout petits naissant d'hyphes aériens qui ne sont jamais liés aux apothécies. Contrairement à de nombreux autres genres des Sclerotiniaceae, le stade asexué de Stromatinia n'est pas connu,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Impact parasitaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de Stromatinia parasitent les rhizomes ou les bulbes de plantes vasculaires monocotylédones comme Stromatinia gladioli qui parasite certains Glaïeuls, Stromatinia narcissi certains Narcissus, Stromatinia paridis la Parisette à quatre feuilles, Stromatinia rapulum quelques Sceaux de Salomon, Sclerotium denigrans plusieurs monocotylédones telles que le Muguet, alors que d'autres espèces parasitent les genres Crocus, Freesia, Tritonia ou encore Iris. Stromatinia cryptomeriae décrit parasitant Cryptomeria japonica est la seule espèce connue pour avoir un hôte gymnosperme[6],[7]
-Stromatinia cepivorum n'appartiendrait plus au genre Stromatinia[8] mais cette opinion ne semble pas être validée par les références taxonomiques[9],[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de Stromatinia parasitent les rhizomes ou les bulbes de plantes vasculaires monocotylédones comme Stromatinia gladioli qui parasite certains Glaïeuls, Stromatinia narcissi certains Narcissus, Stromatinia paridis la Parisette à quatre feuilles, Stromatinia rapulum quelques Sceaux de Salomon, Sclerotium denigrans plusieurs monocotylédones telles que le Muguet, alors que d'autres espèces parasitent les genres Crocus, Freesia, Tritonia ou encore Iris. Stromatinia cryptomeriae décrit parasitant Cryptomeria japonica est la seule espèce connue pour avoir un hôte gymnosperme,
+Stromatinia cepivorum n'appartiendrait plus au genre Stromatinia mais cette opinion ne semble pas être validée par les références taxonomiques,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum                                      (1er juin 2022)[9] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum                                      (1er juin 2022) :
 Stromatinia ariae (Schellenb.) Boud. 1907
 Stromatinia cepivora (Berk.) Whetzel 1945
 Stromatinia cerasi (Woronin) Boud. 1907
